--- a/data/income_statement/3digits/total/802_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/802_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>802-Security systems service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>802-Security systems service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>112914.77803</v>
@@ -968,25 +874,30 @@
         <v>930243.28668</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1381359.28611</v>
+        <v>1398013.60445</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1415860.80439</v>
+        <v>1425515.17496</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>2072785.53374</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2117038.20637</v>
+        <v>2154591.1585</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2125836.56701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2151203.14484</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2747574.934</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>106342.98485</v>
@@ -995,7 +906,7 @@
         <v>106819.737</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>201123.73767</v>
+        <v>201123.7376699999</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>353452.57232</v>
@@ -1004,28 +915,33 @@
         <v>547600.9560199999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>864654.8613800001</v>
+        <v>864654.86138</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1293297.83008</v>
+        <v>1309206.61641</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1319667.97813</v>
+        <v>1329314.75674</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1950549.90835</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1989103.64328</v>
+        <v>2025719.30667</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1993465.35022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2018454.10402</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2479893.302</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>4206.58621</v>
@@ -1055,16 +971,21 @@
         <v>62159.21303</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>64692.60478</v>
+        <v>65552.09366999999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>79451.20821999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>79575.31697999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>226519.602</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2365.20697</v>
@@ -1079,31 +1000,36 @@
         <v>27449.9749</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>34664.88019999999</v>
+        <v>34664.8802</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>41388.51249999999</v>
+        <v>41388.5125</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>49419.58949</v>
+        <v>50165.1215</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>54984.43773000001</v>
+        <v>54992.02969</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>60076.41236</v>
+        <v>60076.41236000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>63241.95831</v>
+        <v>63319.75816</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>52920.00857</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>53173.72384000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>41162.03</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>6786.61658</v>
@@ -1124,25 +1050,30 @@
         <v>43487.57034999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>64617.80827999999</v>
+        <v>64640.23884999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>73494.90749000001</v>
+        <v>73611.75865999999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>109040.65221</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>181836.6767</v>
+        <v>181865.27187</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>172706.19559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>172972.56065</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>157794.581</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2144.97652</v>
@@ -1157,31 +1088,36 @@
         <v>3744.78027</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6665.241419999999</v>
+        <v>6665.24142</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>9076.182220000001</v>
+        <v>9076.182219999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>12544.10871</v>
+        <v>12566.53928</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>16370.06722</v>
+        <v>16486.1558</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>22431.77691</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>45546.83783999999</v>
+        <v>45575.43301</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>44433.35361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>44698.56278</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>74913.34</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4634.444119999999</v>
@@ -1202,10 +1138,10 @@
         <v>34306.96892</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>51847.21082999999</v>
+        <v>51847.21083</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>57047.33157</v>
+        <v>57047.63182000001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>86456.55056999999</v>
@@ -1214,13 +1150,18 @@
         <v>135942.08768</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>127887.68092</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>127889.08282</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>82619.355</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>7.195939999999999</v>
@@ -1244,7 +1185,7 @@
         <v>226.48874</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>77.50869999999999</v>
+        <v>77.97104</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>152.32473</v>
@@ -1253,13 +1194,18 @@
         <v>347.75118</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>385.16106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>384.9150500000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>261.886</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>106128.16145</v>
@@ -1280,25 +1226,30 @@
         <v>886755.71633</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1316741.47783</v>
+        <v>1333373.3656</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1342365.8969</v>
+        <v>1351903.4163</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1963744.88153</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1935201.52967</v>
+        <v>1972725.88663</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1953130.37142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1978230.58419</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2589780.353</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>68733.12132000001</v>
@@ -1319,25 +1270,30 @@
         <v>629884.7037599999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>972023.9511599999</v>
+        <v>987600.12364</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>930198.1657700001</v>
+        <v>938766.93978</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1415255.37385</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1312894.90841</v>
+        <v>1348185.43634</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1265766.55166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1287173.93864</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1794018.974</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3981.12004</v>
@@ -1367,25 +1323,30 @@
         <v>49647.21189</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>51264.00173</v>
+        <v>52676.89148000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>55518.72737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>58332.96274000001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>167548.816</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>36392.65856999999</v>
+        <v>36392.65857</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>43226.70586</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>85027.74033</v>
+        <v>85027.74033000002</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>110825.72462</v>
@@ -1397,25 +1358,30 @@
         <v>458980.75196</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>720593.82634</v>
+        <v>736169.99882</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>626872.88688</v>
+        <v>635082.5465000001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1042849.0467</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>875308.4301499999</v>
+        <v>903621.4913899999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>806368.94782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>822142.1998399999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1069133.957</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>28359.34271</v>
@@ -1439,22 +1405,27 @@
         <v>220249.87172</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>253877.8307</v>
+        <v>254236.94509</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>310179.4306799999</v>
+        <v>310179.43068</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>375023.8157</v>
+        <v>380588.39264</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>395785.67888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>398605.57847</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>545289.7610000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1487,13 +1458,18 @@
         <v>11298.66083</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>8093.197590000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>8093.19759</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>12046.44</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>37395.04013</v>
@@ -1502,7 +1478,7 @@
         <v>34007.65499</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>85138.89754999999</v>
+        <v>85138.89754999998</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>140080.81816</v>
@@ -1514,25 +1490,30 @@
         <v>256871.01257</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>344717.52667</v>
+        <v>345773.24196</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>412167.73113</v>
+        <v>413136.47652</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>548489.5076799999</v>
+        <v>548489.50768</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>622306.62126</v>
+        <v>624540.4502899999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>687363.8197600001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>691056.6455499999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>795761.379</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>33428.39262</v>
@@ -1553,25 +1534,30 @@
         <v>219316.78053</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>277837.09105</v>
+        <v>278693.6208200001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>301228.15433</v>
+        <v>302176.68517</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>350884.52641</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>408634.6442799999</v>
+        <v>413524.2614199999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>485493.7542800001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>490294.6751000001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>503595.963</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>10.09125</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>2761.39526</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>4384.84</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>16779.43915</v>
@@ -1622,34 +1613,39 @@
         <v>56356.4495</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>87221.00747999999</v>
+        <v>87221.00748</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>88357.72397000002</v>
+        <v>88357.72396999999</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>91867.11328000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>123741.25936</v>
+        <v>123945.38837</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>125510.51539</v>
+        <v>126079.15301</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>148702.47606</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>185547.32451</v>
+        <v>186024.62597</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>215772.37983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>216324.95672</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>205332.568</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>16638.86222</v>
@@ -1661,7 +1657,7 @@
         <v>31492.0601</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>63478.31904000001</v>
+        <v>63478.31903999999</v>
       </c>
       <c r="G23" s="48" t="n">
         <v>101089.99796</v>
@@ -1670,25 +1666,30 @@
         <v>127433.7645</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>154095.83169</v>
+        <v>154748.23245</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>175523.80537</v>
+        <v>175903.69859</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>202160.13021</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>221453.65404</v>
+        <v>225865.96972</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>266959.97919</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>271208.32312</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>293878.555</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>3966.64751</v>
@@ -1697,7 +1698,7 @@
         <v>-1941.24647</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-2802.200039999999</v>
+        <v>-2802.200040000001</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>-10624.90495</v>
@@ -1709,31 +1710,36 @@
         <v>37554.23204</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>66880.43562</v>
+        <v>67079.62114</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>110939.5768</v>
+        <v>110959.79135</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>197604.98127</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>213671.97698</v>
+        <v>211016.18887</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>201870.06548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>200761.97045</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>292165.416</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>5910.00136</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4721.804329999999</v>
+        <v>4721.80433</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>13572.00533</v>
@@ -1748,25 +1754,30 @@
         <v>52274.85511</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>58060.19459</v>
+        <v>58134.60204999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>107386.65854</v>
+        <v>107454.14362</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>154453.08887</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>321055.63702</v>
+        <v>324961.9557200001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>156475.45284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>158752.11256</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>341312.601</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>173.201</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>50.28514999999999</v>
+        <v>50.28515</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>72.92838</v>
@@ -1865,25 +1886,30 @@
         <v>5824.391479999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>7073.03646</v>
+        <v>7147.113840000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7054.38414</v>
+        <v>7067.379120000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>11769.0112</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>6597.48723</v>
+        <v>6764.87645</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>11218.46055</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>11469.03774</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>11408.653</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>11.19321</v>
@@ -1907,7 +1933,7 @@
         <v>45.61156</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>94.56374</v>
+        <v>94.56374000000001</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>54.7073</v>
@@ -1916,13 +1942,18 @@
         <v>58.14346</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>22.71309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>108.01134</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>73.79000000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>108.61301</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1238.9559</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2351.776</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>7.34692</v>
@@ -1988,19 +2024,24 @@
         <v>198.51341</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>601.0451699999999</v>
+        <v>601.0451700000001</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>590.94372</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>412.91647</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>528.84088</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>396.992</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>5373.316379999999</v>
@@ -2021,25 +2062,30 @@
         <v>43189.79952</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>43079.27595</v>
+        <v>43079.60595</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>67401.2767</v>
+        <v>67447.90916</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>125502.08746</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>305535.63152</v>
+        <v>309280.0827500001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>135694.39568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>137426.24082</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>316652.369</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2.16583</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>24.40448</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>188.6</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>2.20001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>22.995</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>357.08086</v>
@@ -2129,7 +2185,7 @@
         <v>82.13491</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>407.3281499999999</v>
+        <v>407.3281500000001</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>1108.4985</v>
@@ -2138,25 +2194,30 @@
         <v>1712.3678</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2806.4638</v>
+        <v>2806.46388</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4193.31054</v>
+        <v>4201.168180000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>4411.137970000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>6265.84849</v>
+        <v>6260.32674</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>7861.406660000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>7954.42139</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>10044.225</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>2671.28663</v>
@@ -2177,25 +2238,30 @@
         <v>17756.71394</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>32068.8222</v>
+        <v>32068.82371</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>47510.99878</v>
+        <v>47582.34731</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>36367.35192</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>92406.66125999999</v>
+        <v>93833.05415000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>48762.26933</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>50194.60528</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>152992.732</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3.89703</v>
@@ -2219,7 +2285,7 @@
         <v>1025.62566</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>171.17087</v>
+        <v>174.81513</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>450.34854</v>
@@ -2228,13 +2294,18 @@
         <v>3140.06711</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1904.58958</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1906.41529</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>612.423</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1032.2329</v>
@@ -2264,16 +2335,21 @@
         <v>14451.40226</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>5785.69448</v>
+        <v>5785.694479999999</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>9725.212130000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>26500.528</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>10.24257</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4.217</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1546.85562</v>
@@ -2336,22 +2417,27 @@
         <v>18279.37959</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>27778.29711</v>
+        <v>27846.00138</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>19939.72499</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>82325.46610999999</v>
+        <v>83751.859</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>35954.13222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>37384.41676</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>124841.33</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>6.706390000000001</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>166.25503</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>31.403</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>17.969</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>81.59469</v>
@@ -2450,7 +2546,7 @@
         <v>1265.6487</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4024.91114</v>
+        <v>4024.91265</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>3391.05238</v>
@@ -2462,16 +2558,21 @@
         <v>1122.76297</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1001.8378</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1002.0635</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>984.862</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>7496.87548</v>
+        <v>7496.875480000001</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>5270.92823</v>
@@ -2483,37 +2584,42 @@
         <v>32173.55761</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>76494.35914</v>
+        <v>76494.35913999999</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>101231.05004</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>161242.19334</v>
+        <v>161284.11014</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>200701.43313</v>
+        <v>200709.98653</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>221726.93699</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>578958.8401299999</v>
+        <v>579157.81939</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>329385.88595</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>329778.62871</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>525244.871</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>5530.329620000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5267.774579999999</v>
+        <v>5267.77458</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>30924.35941</v>
@@ -2528,25 +2634,30 @@
         <v>101077.36621</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>161042.34478</v>
+        <v>161084.26158</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>200180.2359</v>
+        <v>200188.7893</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>221270.15676</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>578677.7492199999</v>
+        <v>578876.7284799999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>328592.62485</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>328985.36761</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>525111.0060000001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1966.54586</v>
@@ -2581,14 +2692,19 @@
       <c r="M46" s="48" t="n">
         <v>793.2611000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>133.865</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-291.5132399999999</v>
+        <v>-291.5132399999998</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>-4596.94731</v>
@@ -2600,31 +2716,36 @@
         <v>-28822.07899</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-62853.83963</v>
+        <v>-62853.83962999999</v>
       </c>
       <c r="H47" s="47" t="n">
         <v>-29158.67683</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-68370.38533000002</v>
+        <v>-68138.71066</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-29886.19656999999</v>
+        <v>-29878.39887</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>93963.78122999999</v>
+        <v>93963.78123000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-136637.88739</v>
+        <v>-137012.72895</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-19802.63696</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-20459.15098000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-44759.586</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1179.14351</v>
@@ -2636,34 +2757,39 @@
         <v>1373.77488</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3650.477249999999</v>
+        <v>3650.47725</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4351.07583</v>
+        <v>4354.07583</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>4499.230820000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5293.22309</v>
+        <v>5305.39954</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>7768.267309999999</v>
+        <v>7775.33924</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>8068.21318</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>12612.28014</v>
+        <v>12635.16738</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>16291.36189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>16379.91552</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>14587.853</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>20.6691</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>46.65560000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>101.411</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1158.47441</v>
@@ -2717,31 +2848,36 @@
         <v>3640.18771</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4103.17757</v>
+        <v>4106.177570000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>4490.88613</v>
+        <v>4490.886130000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5268.82307</v>
+        <v>5280.999519999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>7765.262729999999</v>
+        <v>7772.33466</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>8043.34659</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>12514.84633</v>
+        <v>12537.73357</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>16244.70629</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>16333.25992</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>14486.442</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1585.93737</v>
@@ -2750,37 +2886,42 @@
         <v>2252.40497</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>9099.11594</v>
+        <v>9099.115940000002</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>5334.95932</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7370.92556</v>
+        <v>7370.925560000001</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>20931.65395</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>9422.995149999999</v>
+        <v>9430.910790000002</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>37278.51704999999</v>
+        <v>37287.24831</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>18719.99284</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>48295.91890999999</v>
+        <v>48306.5399</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>71958.78076000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>72434.03687000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>25958.109</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0.48434</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>29.05276</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>9.179</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>6.041</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>2285.67447</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>233.661</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1579.41203</v>
@@ -2867,37 +3018,42 @@
         <v>2248.77794</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>9090.078880000001</v>
+        <v>9090.078879999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5176.960059999999</v>
+        <v>5176.96006</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7111.987770000001</v>
+        <v>7111.98777</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>20734.5285</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>9360.43468</v>
+        <v>9368.35032</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>36956.06092</v>
+        <v>36964.79218</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>17648.93449</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>47876.3121</v>
+        <v>47886.93309000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>69644.05353</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>70119.30964000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>25715.269</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-698.3071000000003</v>
@@ -2909,34 +3065,39 @@
         <v>-35739.10625</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-30506.56106</v>
+        <v>-30506.56106000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-65873.68935999999</v>
+        <v>-65870.68935999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-45591.09995999999</v>
+        <v>-45591.09996</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-72500.15738999998</v>
+        <v>-72264.22190999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-59396.44631</v>
+        <v>-59390.30794000001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>83312.00156999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-172321.52616</v>
+        <v>-172684.10147</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-75470.05583000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-76513.27233000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-56129.842</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>800.19637</v>
@@ -2951,67 +3112,75 @@
         <v>2944.68823</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3886.61989</v>
+        <v>3886.619889999999</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>5090.79924</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>11578.23421</v>
+        <v>11583.90888</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9659.920039999999</v>
+        <v>9668.170330000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>14471.01128</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>15668.85013</v>
+        <v>16208.15137</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>14825.65437</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>15155.3935</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>29905.086</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-1498.50347</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-6051.154060000001</v>
+        <v>-6051.15406</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-38613.4381</v>
+        <v>-38613.43809999999</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>-33451.24929</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-69760.30924999999</v>
+        <v>-69757.30924999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-50681.89919999999</v>
+        <v>-50681.8992</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-84078.39159999999</v>
+        <v>-83848.13079000002</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-69056.36635</v>
+        <v>-69058.47827000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>68840.99028999999</v>
+        <v>68840.99029</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-187990.37629</v>
+        <v>-188892.25284</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-90295.71020000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-91668.66583</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-86034.928</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>107</v>
@@ -3044,28 +3216,31 @@
         <v>298</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>618</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>930</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>947</v>
+        <v>1005</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1054</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>